--- a/ofc/estimates/bhaipari/V_pashikhel gravel baato.xlsx
+++ b/ofc/estimates/bhaipari/V_pashikhel gravel baato.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\bhaipari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\estimates\bhaipari\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'Sheet4 (2)'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -415,9 +415,6 @@
     <t>-Chanage 0+078 to 0+083</t>
   </si>
   <si>
-    <t>Date: 2082/02/27</t>
-  </si>
-  <si>
     <t xml:space="preserve">F.Y.: 2081/2082 </t>
   </si>
   <si>
@@ -430,23 +427,26 @@
     <t xml:space="preserve">F.Y:2081/2082             </t>
   </si>
   <si>
-    <t xml:space="preserve">Date:2082/02/27        </t>
-  </si>
-  <si>
     <t>Detail Quantity Measurement Sheet</t>
   </si>
   <si>
     <t>-Chanage 0+083 to 0+087.3</t>
   </si>
+  <si>
+    <t xml:space="preserve">Date:                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:                              </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -660,7 +660,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -670,7 +670,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,7 +681,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,7 +694,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -710,7 +710,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -731,7 +731,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,7 +756,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -780,7 +780,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -791,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,10 +827,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -854,7 +854,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -881,7 +881,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -906,7 +906,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -924,19 +924,23 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -951,13 +955,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,8 +971,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,30 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,135 +1573,135 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="124" t="s">
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="R9" s="36"/>
       <c r="S9" s="36"/>
     </row>
-    <row r="10" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="60" t="s">
         <v>53</v>
@@ -1795,7 +1795,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="60" t="s">
         <v>51</v>
@@ -1831,7 +1831,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="60" t="s">
         <v>55</v>
@@ -1870,7 +1870,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="59" t="s">
         <v>49</v>
@@ -1902,7 +1902,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="59" t="s">
         <v>42</v>
@@ -1927,7 +1927,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="35"/>
       <c r="C15" s="30"/>
@@ -1947,7 +1947,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="60" t="s">
         <v>53</v>
@@ -1992,7 +1992,7 @@
       <c r="J17" s="49"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="60" t="s">
         <v>51</v>
@@ -2021,7 +2021,7 @@
       <c r="J18" s="49"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="60" t="s">
         <v>55</v>
@@ -2057,7 +2057,7 @@
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="59" t="s">
         <v>49</v>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="59" t="s">
         <v>42</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="35"/>
       <c r="C22" s="30"/>
@@ -2120,7 +2120,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
     </row>
-    <row r="23" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>3</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="60" t="s">
         <v>55</v>
@@ -2172,7 +2172,7 @@
       <c r="J24" s="49"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="60" t="s">
         <v>56</v>
@@ -2199,7 +2199,7 @@
       <c r="J25" s="49"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="60" t="s">
         <v>51</v>
@@ -2228,7 +2228,7 @@
       <c r="J26" s="49"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="59" t="s">
         <v>49</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="59" t="s">
         <v>42</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="35"/>
       <c r="C29" s="30"/>
@@ -2291,7 +2291,7 @@
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
     </row>
-    <row r="30" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>4</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="61" t="s">
         <v>51</v>
@@ -2351,7 +2351,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="61" t="s">
         <v>52</v>
@@ -2385,7 +2385,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
     </row>
-    <row r="33" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="59" t="s">
         <v>49</v>
@@ -2417,7 +2417,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="59" t="s">
         <v>42</v>
@@ -2442,7 +2442,7 @@
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="59"/>
       <c r="C35" s="5"/>
@@ -2462,7 +2462,7 @@
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
     </row>
-    <row r="36" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>5</v>
       </c>
@@ -2487,7 +2487,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="59" t="s">
         <v>55</v>
@@ -2521,7 +2521,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="59" t="s">
         <v>49</v>
@@ -2553,7 +2553,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="59" t="s">
         <v>42</v>
@@ -2578,7 +2578,7 @@
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="59"/>
       <c r="C40" s="5"/>
@@ -2598,7 +2598,7 @@
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
     </row>
-    <row r="41" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>6</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="59" t="str">
         <f>B17</f>
@@ -2660,7 +2660,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="59" t="s">
         <v>49</v>
@@ -2692,7 +2692,7 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="59" t="s">
         <v>42</v>
@@ -2717,7 +2717,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="59"/>
       <c r="C45" s="5"/>
@@ -2737,7 +2737,7 @@
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>7</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="61" t="s">
         <v>58</v>
@@ -2804,7 +2804,7 @@
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="61" t="s">
         <v>59</v>
@@ -2841,7 +2841,7 @@
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
     </row>
-    <row r="49" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="59" t="s">
         <v>49</v>
@@ -2873,7 +2873,7 @@
       <c r="R49" s="36"/>
       <c r="S49" s="36"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="59" t="s">
         <v>42</v>
@@ -2898,7 +2898,7 @@
       <c r="R50" s="36"/>
       <c r="S50" s="36"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="45"/>
       <c r="C51" s="30"/>
@@ -2918,7 +2918,7 @@
       <c r="R51" s="36"/>
       <c r="S51" s="36"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>8</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="J52" s="49"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>8.1</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="J53" s="49"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="5" t="s">
         <v>46</v>
@@ -2979,7 +2979,7 @@
       <c r="J54" s="49"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="59" t="s">
         <v>49</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="59" t="s">
         <v>42</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>8.1999999999999993</v>
       </c>
@@ -3039,7 +3039,7 @@
       <c r="J57" s="49"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="5" t="s">
         <v>46</v>
@@ -3066,7 +3066,7 @@
       <c r="J58" s="49"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="59" t="s">
         <v>49</v>
@@ -3095,7 +3095,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="59" t="s">
         <v>42</v>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="5"/>
       <c r="C61" s="47"/>
@@ -3126,7 +3126,7 @@
       <c r="J61" s="55"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>8.3000000000000007</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="J62" s="55"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="57" t="str">
         <f>description_247</f>
@@ -3167,7 +3167,7 @@
       <c r="J63" s="58"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="59" t="s">
         <v>49</v>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="K64" s="18"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="59" t="s">
         <v>42</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
       <c r="B66" s="45"/>
       <c r="C66" s="30"/>
@@ -3230,7 +3230,7 @@
       <c r="R66" s="36"/>
       <c r="S66" s="36"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
       <c r="B67" s="45"/>
       <c r="C67" s="30"/>
@@ -3250,7 +3250,7 @@
       <c r="R67" s="36"/>
       <c r="S67" s="36"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
       <c r="B68" s="45"/>
       <c r="C68" s="30"/>
@@ -3270,7 +3270,7 @@
       <c r="R68" s="36"/>
       <c r="S68" s="36"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>9</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="R69" s="36"/>
       <c r="S69" s="36"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
       <c r="B70" s="35"/>
       <c r="C70" s="30"/>
@@ -3326,7 +3326,7 @@
       <c r="R70" s="36"/>
       <c r="S70" s="36"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -3344,15 +3344,15 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="73" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="114">
+      <c r="C73" s="118">
         <f>J71</f>
         <v>1194331.7948368895</v>
       </c>
-      <c r="D73" s="115"/>
+      <c r="D73" s="119"/>
       <c r="E73" s="16">
         <v>100</v>
       </c>
@@ -3363,87 +3363,87 @@
       <c r="J73" s="23"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="116">
+      <c r="C74" s="125">
         <v>1000000</v>
       </c>
-      <c r="D74" s="117"/>
+      <c r="D74" s="126"/>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="116">
+      <c r="C75" s="125">
         <f>C74-C77-C78</f>
         <v>950000</v>
       </c>
-      <c r="D75" s="117"/>
+      <c r="D75" s="126"/>
       <c r="E75" s="16">
         <f>C75/C73*100</f>
         <v>79.542385466656867</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="113">
+      <c r="C76" s="124">
         <f>C73-C75</f>
         <v>244331.79483688949</v>
       </c>
-      <c r="D76" s="113"/>
+      <c r="D76" s="124"/>
       <c r="E76" s="16">
         <f>100-E75</f>
         <v>20.457614533343133</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="114">
+      <c r="C77" s="118">
         <f>C74*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D77" s="115"/>
+      <c r="D77" s="119"/>
       <c r="E77" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="114">
+      <c r="C78" s="118">
         <f>C74*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D78" s="115"/>
+      <c r="D78" s="119"/>
       <c r="E78" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3462,130 +3462,130 @@
       <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>1</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="J9" s="75"/>
       <c r="K9" s="75"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="76" t="s">
         <v>65</v>
@@ -3671,7 +3671,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="76" t="s">
         <v>51</v>
@@ -3705,7 +3705,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="76" t="s">
         <v>49</v>
@@ -3737,7 +3737,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="76" t="s">
         <v>42</v>
@@ -3762,7 +3762,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="35"/>
       <c r="C14" s="30"/>
@@ -3782,7 +3782,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2</v>
       </c>
@@ -3806,7 +3806,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="76" t="str">
         <f>B11</f>
@@ -3841,7 +3841,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
       <c r="B17" s="76" t="s">
         <v>49</v>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="K17" s="75"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
       <c r="B18" s="76" t="s">
         <v>42</v>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="K18" s="75"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
       <c r="B19" s="76"/>
       <c r="C19" s="81"/>
@@ -3897,7 +3897,7 @@
       <c r="J19" s="84"/>
       <c r="K19" s="75"/>
     </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="76" t="str">
         <f>B16</f>
@@ -3955,7 +3955,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
       <c r="B22" s="76" t="s">
         <v>49</v>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="K22" s="75"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="79"/>
       <c r="B23" s="76" t="s">
         <v>42</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="K23" s="75"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
       <c r="B24" s="76"/>
       <c r="C24" s="81"/>
@@ -4011,7 +4011,7 @@
       <c r="J24" s="84"/>
       <c r="K24" s="75"/>
     </row>
-    <row r="25" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>5</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
     </row>
-    <row r="26" spans="1:19" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="76" t="s">
         <v>83</v>
@@ -4062,7 +4062,7 @@
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="79"/>
       <c r="B27" s="76" t="s">
         <v>49</v>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K27" s="75"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79"/>
       <c r="B28" s="76" t="s">
         <v>42</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="K28" s="75"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="79"/>
       <c r="B29" s="76"/>
       <c r="C29" s="81"/>
@@ -4118,7 +4118,7 @@
       <c r="J29" s="84"/>
       <c r="K29" s="75"/>
     </row>
-    <row r="30" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>6</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="76" t="str">
         <f>B26</f>
@@ -4177,7 +4177,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="76" t="s">
         <v>69</v>
@@ -4217,7 +4217,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
       <c r="B33" s="76" t="s">
         <v>49</v>
@@ -4254,7 +4254,7 @@
         <v>0.58473026516306004</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="79"/>
       <c r="B34" s="76" t="s">
         <v>42</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="K34" s="75"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="79"/>
       <c r="B35" s="76"/>
       <c r="C35" s="81"/>
@@ -4285,7 +4285,7 @@
       <c r="J35" s="84"/>
       <c r="K35" s="75"/>
     </row>
-    <row r="36" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>7</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="76" t="s">
         <v>67</v>
@@ -4348,7 +4348,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="76" t="s">
         <v>49</v>
@@ -4383,7 +4383,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="76" t="s">
         <v>42</v>
@@ -4408,7 +4408,7 @@
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="76"/>
       <c r="C40" s="75"/>
@@ -4428,7 +4428,7 @@
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
     </row>
-    <row r="41" spans="1:19" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>8</v>
       </c>
@@ -4464,7 +4464,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="76"/>
       <c r="C42" s="75"/>
@@ -4484,7 +4484,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>9</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="35"/>
       <c r="C44" s="30"/>
@@ -4540,7 +4540,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="79"/>
       <c r="B45" s="86" t="s">
         <v>17</v>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="K45" s="75"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="101"/>
       <c r="B46" s="104"/>
       <c r="C46" s="105"/>
@@ -4571,16 +4571,16 @@
       <c r="J46" s="103"/>
       <c r="K46" s="97"/>
     </row>
-    <row r="47" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
       <c r="B47" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="125">
+      <c r="C47" s="127">
         <f>J45</f>
         <v>558845.82475410122</v>
       </c>
-      <c r="D47" s="125"/>
+      <c r="D47" s="127"/>
       <c r="E47" s="78">
         <v>100</v>
       </c>
@@ -4591,15 +4591,15 @@
       <c r="J47" s="94"/>
       <c r="K47" s="95"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="96"/>
       <c r="B48" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="128">
+      <c r="C48" s="131">
         <v>500000</v>
       </c>
-      <c r="D48" s="128"/>
+      <c r="D48" s="131"/>
       <c r="E48" s="78"/>
       <c r="F48" s="89"/>
       <c r="G48" s="88"/>
@@ -4608,16 +4608,16 @@
       <c r="J48" s="88"/>
       <c r="K48" s="89"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="96"/>
       <c r="B49" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="128">
+      <c r="C49" s="131">
         <f>C48-C51-C52</f>
         <v>475000</v>
       </c>
-      <c r="D49" s="128"/>
+      <c r="D49" s="131"/>
       <c r="E49" s="78">
         <f>C49/C47*100</f>
         <v>84.996608896381332</v>
@@ -4629,16 +4629,16 @@
       <c r="J49" s="88"/>
       <c r="K49" s="89"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="96"/>
       <c r="B50" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="125">
+      <c r="C50" s="127">
         <f>C47-C49</f>
         <v>83845.824754101224</v>
       </c>
-      <c r="D50" s="125"/>
+      <c r="D50" s="127"/>
       <c r="E50" s="78">
         <f>100-E49</f>
         <v>15.003391103618668</v>
@@ -4650,16 +4650,16 @@
       <c r="J50" s="88"/>
       <c r="K50" s="89"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="96"/>
       <c r="B51" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="125">
+      <c r="C51" s="127">
         <f>C48*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D51" s="125"/>
+      <c r="D51" s="127"/>
       <c r="E51" s="78">
         <v>3</v>
       </c>
@@ -4670,16 +4670,16 @@
       <c r="J51" s="88"/>
       <c r="K51" s="89"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="96"/>
       <c r="B52" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="125">
+      <c r="C52" s="127">
         <f>C48*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D52" s="125"/>
+      <c r="D52" s="127"/>
       <c r="E52" s="78">
         <v>2</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="J52" s="88"/>
       <c r="K52" s="89"/>
     </row>
-    <row r="53" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="97"/>
       <c r="B53" s="97"/>
       <c r="C53" s="97"/>
@@ -4703,71 +4703,64 @@
       <c r="J53" s="97"/>
       <c r="K53" s="97"/>
     </row>
-    <row r="54" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A7:F7"/>
@@ -4776,6 +4769,13 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -4796,135 +4796,135 @@
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="124" t="s">
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="67"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="59" t="s">
         <v>65</v>
@@ -5014,7 +5014,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="59" t="s">
         <v>51</v>
@@ -5047,7 +5047,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="59" t="s">
         <v>49</v>
@@ -5079,7 +5079,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="59" t="s">
         <v>42</v>
@@ -5104,7 +5104,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="35"/>
       <c r="C14" s="30"/>
@@ -5124,7 +5124,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="59" t="str">
         <f>B11</f>
@@ -5183,7 +5183,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="59" t="s">
         <v>49</v>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="59" t="s">
         <v>42</v>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="59"/>
       <c r="C19" s="47"/>
@@ -5239,7 +5239,7 @@
       <c r="J19" s="54"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -5263,7 +5263,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="59" t="str">
         <f>B16</f>
@@ -5297,7 +5297,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="59" t="s">
         <v>49</v>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="59" t="s">
         <v>42</v>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="59"/>
       <c r="C24" s="47"/>
@@ -5353,7 +5353,7 @@
       <c r="J24" s="54"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>4</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="59" t="s">
         <v>66</v>
@@ -5421,7 +5421,7 @@
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="59" t="s">
         <v>49</v>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="59" t="s">
         <v>42</v>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="59"/>
       <c r="C29" s="47"/>
@@ -5477,7 +5477,7 @@
       <c r="J29" s="54"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>5</v>
       </c>
@@ -5501,7 +5501,7 @@
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="59" t="str">
         <f>B26</f>
@@ -5536,7 +5536,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="59" t="s">
         <v>49</v>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="59" t="s">
         <v>42</v>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="59"/>
       <c r="C34" s="47"/>
@@ -5592,7 +5592,7 @@
       <c r="J34" s="54"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>6</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="59" t="str">
         <f>B31</f>
@@ -5651,7 +5651,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="59" t="s">
         <v>69</v>
@@ -5685,7 +5685,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="59" t="s">
         <v>49</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="59" t="s">
         <v>42</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="59"/>
       <c r="C40" s="47"/>
@@ -5741,7 +5741,7 @@
       <c r="J40" s="54"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:19" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>5</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="59" t="s">
         <v>68</v>
@@ -5795,7 +5795,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="59" t="s">
         <v>49</v>
@@ -5827,7 +5827,7 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
     </row>
-    <row r="44" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="59" t="s">
         <v>42</v>
@@ -5852,7 +5852,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
-    <row r="45" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="59"/>
       <c r="C45" s="5"/>
@@ -5872,7 +5872,7 @@
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>7</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="59" t="s">
         <v>67</v>
@@ -5932,7 +5932,7 @@
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="59" t="s">
         <v>49</v>
@@ -5964,7 +5964,7 @@
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="59" t="s">
         <v>42</v>
@@ -5989,7 +5989,7 @@
       <c r="R49" s="36"/>
       <c r="S49" s="36"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="59"/>
       <c r="C50" s="5"/>
@@ -6009,7 +6009,7 @@
       <c r="R50" s="36"/>
       <c r="S50" s="36"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>8</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="R51" s="36"/>
       <c r="S51" s="36"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
       <c r="B52" s="35"/>
       <c r="C52" s="30"/>
@@ -6065,7 +6065,7 @@
       <c r="R52" s="36"/>
       <c r="S52" s="36"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="28" t="s">
         <v>17</v>
@@ -6083,15 +6083,15 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="114">
+      <c r="C55" s="118">
         <f>J53</f>
         <v>563311.92829411826</v>
       </c>
-      <c r="D55" s="115"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="16">
         <v>100</v>
       </c>
@@ -6102,77 +6102,84 @@
       <c r="J55" s="23"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="72"/>
       <c r="B56" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="116">
+      <c r="C56" s="125">
         <v>500000</v>
       </c>
-      <c r="D56" s="117"/>
+      <c r="D56" s="126"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="72"/>
       <c r="B57" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="116">
+      <c r="C57" s="125">
         <f>C56-C59-C60</f>
         <v>475000</v>
       </c>
-      <c r="D57" s="117"/>
+      <c r="D57" s="126"/>
       <c r="E57" s="16">
         <f>C57/C55*100</f>
         <v>84.322730647377924</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="72"/>
       <c r="B58" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="113">
+      <c r="C58" s="124">
         <f>C55-C57</f>
         <v>88311.928294118261</v>
       </c>
-      <c r="D58" s="113"/>
+      <c r="D58" s="124"/>
       <c r="E58" s="16">
         <f>100-E57</f>
         <v>15.677269352622076</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="72"/>
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="114">
+      <c r="C59" s="118">
         <f>C56*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D59" s="115"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="72"/>
       <c r="B60" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="114">
+      <c r="C60" s="118">
         <f>C56*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D60" s="115"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A7:F7"/>
@@ -6181,13 +6188,6 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6208,134 +6208,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="138" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="107">
         <v>1</v>
       </c>
@@ -6387,7 +6387,7 @@
       <c r="J9" s="75"/>
       <c r="K9" s="75"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="76" t="s">
         <v>90</v>
@@ -6421,7 +6421,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="76" t="s">
         <v>49</v>
@@ -6453,7 +6453,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="76" t="s">
         <v>42</v>
@@ -6478,7 +6478,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="35"/>
       <c r="C13" s="30"/>
@@ -6498,7 +6498,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="76" t="s">
         <v>90</v>
@@ -6567,7 +6567,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="76" t="s">
         <v>49</v>
@@ -6603,7 +6603,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="76" t="s">
         <v>42</v>
@@ -6628,7 +6628,7 @@
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="76"/>
       <c r="C18" s="75"/>
@@ -6648,7 +6648,7 @@
       <c r="R18" s="36"/>
       <c r="S18" s="36"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>3</v>
       </c>
@@ -6684,7 +6684,7 @@
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="35"/>
       <c r="C20" s="30"/>
@@ -6704,7 +6704,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="79"/>
       <c r="B21" s="86" t="s">
         <v>17</v>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="K21" s="75"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
       <c r="C22" s="89"/>
@@ -6735,16 +6735,16 @@
       <c r="J22" s="88"/>
       <c r="K22" s="89"/>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="125">
+      <c r="C23" s="127">
         <f>J21</f>
         <v>43945.753416641266</v>
       </c>
-      <c r="D23" s="125"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="92"/>
       <c r="F23" s="91"/>
       <c r="G23" s="92"/>
@@ -6753,16 +6753,16 @@
       <c r="J23" s="94"/>
       <c r="K23" s="95"/>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="96"/>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="141">
+      <c r="C24" s="130">
         <v>35000</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="89"/>
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
@@ -6770,16 +6770,16 @@
       <c r="J24" s="88"/>
       <c r="K24" s="89"/>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="96"/>
       <c r="B25" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="128">
+      <c r="C25" s="131">
         <f>C24-C27-C28</f>
         <v>33250</v>
       </c>
-      <c r="D25" s="128"/>
+      <c r="D25" s="131"/>
       <c r="E25" s="78">
         <f>C25/C23*100</f>
         <v>75.661463087828125</v>
@@ -6791,16 +6791,16 @@
       <c r="J25" s="88"/>
       <c r="K25" s="89"/>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
       <c r="B26" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26" s="127">
         <f>C23-C25</f>
         <v>10695.753416641266</v>
       </c>
-      <c r="D26" s="125"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="78">
         <f>100-E25</f>
         <v>24.338536912171875</v>
@@ -6812,16 +6812,16 @@
       <c r="J26" s="88"/>
       <c r="K26" s="89"/>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="96"/>
       <c r="B27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="127">
         <f>C24*0.03</f>
         <v>1050</v>
       </c>
-      <c r="D27" s="125"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="78">
         <v>3</v>
       </c>
@@ -6832,16 +6832,16 @@
       <c r="J27" s="88"/>
       <c r="K27" s="89"/>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="96"/>
       <c r="B28" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28" s="127">
         <f>C24*0.02</f>
         <v>700</v>
       </c>
-      <c r="D28" s="125"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="78">
         <v>2</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="J28" s="88"/>
       <c r="K28" s="89"/>
     </row>
-    <row r="29" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
@@ -6865,58 +6865,65 @@
       <c r="J29" s="97"/>
       <c r="K29" s="97"/>
     </row>
-    <row r="30" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A7:F7"/>
@@ -6925,13 +6932,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -6945,110 +6945,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="138" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="139" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="135">
+      <c r="C6" s="132">
         <f>F21</f>
         <v>43945.753416641266</v>
       </c>
-      <c r="D6" s="136"/>
+      <c r="D6" s="133"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -7056,90 +7056,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="135">
+      <c r="J6" s="132">
         <f>I21</f>
-        <v>40045.103192310678</v>
-      </c>
-      <c r="K6" s="136"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>39545.103192310678</v>
+      </c>
+      <c r="K6" s="133"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="I7" s="132" t="s">
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="I7" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="122" t="str">
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="115" t="str">
         <f>ग्रावेल!A6</f>
         <v>Project:-  सानागाउँ पासिखेल भित्री सडक ग्राबेल</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="I8" s="133" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="122" t="str">
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="I8" s="141" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="115" t="str">
         <f>ग्रावेल!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="I9" s="133" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="129" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="I9" s="141" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134" t="s">
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="129" t="s">
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="130" t="s">
+      <c r="K11" s="138" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
@@ -7158,10 +7158,10 @@
       <c r="I12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="129"/>
-      <c r="K12" s="130"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <f>ग्रावेल!A9</f>
         <v>1</v>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="110" t="str">
         <f>ग्रावेल!B12</f>
@@ -7226,7 +7226,7 @@
       <c r="J14" s="39"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="16"/>
@@ -7239,7 +7239,7 @@
       <c r="J15" s="39"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <f>ग्रावेल!A14</f>
         <v>2</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="110" t="str">
         <f>ग्रावेल!B17</f>
@@ -7304,7 +7304,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="44"/>
       <c r="C18" s="16"/>
@@ -7317,7 +7317,7 @@
       <c r="J18" s="39"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <f>ग्रावेल!A19</f>
         <v>3</v>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="G19" s="16">
         <f>V!G37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="16">
         <f>V!I37</f>
@@ -7352,15 +7352,15 @@
       </c>
       <c r="I19" s="16">
         <f>G19*H19</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J19" s="39">
         <f>I19-F19</f>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
       <c r="C20" s="16"/>
@@ -7373,7 +7373,7 @@
       <c r="J20" s="39"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -7389,23 +7389,16 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9">
         <f>SUM(I13:I19)</f>
-        <v>40045.103192310678</v>
+        <v>39545.103192310678</v>
       </c>
       <c r="J21" s="17">
         <f>I21-F21</f>
-        <v>-3900.6502243305877</v>
+        <v>-4400.6502243305877</v>
       </c>
       <c r="K21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -7419,6 +7412,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7436,134 +7436,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="H6" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="127" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="138" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="107">
         <v>1</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="J9" s="75"/>
       <c r="K9" s="75"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="76" t="s">
         <v>90</v>
@@ -7649,7 +7649,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="76" t="s">
         <v>49</v>
@@ -7681,7 +7681,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="76" t="s">
         <v>42</v>
@@ -7706,7 +7706,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="35"/>
       <c r="C13" s="30"/>
@@ -7726,7 +7726,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2</v>
       </c>
@@ -7750,7 +7750,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="76" t="s">
         <v>93</v>
@@ -7789,7 +7789,7 @@
         <v>7.6196281621456863E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="76" t="s">
         <v>94</v>
@@ -7801,11 +7801,11 @@
         <v>5</v>
       </c>
       <c r="E16" s="77">
-        <f>(O15+O16)/2</f>
+        <f t="shared" ref="E16:E33" si="0">(O15+O16)/2</f>
         <v>1.9811033221578787</v>
       </c>
       <c r="F16" s="77">
-        <f>(P15+P16)/2</f>
+        <f t="shared" ref="F16:F33" si="1">(P15+P16)/2</f>
         <v>5.0797521080971242E-2</v>
       </c>
       <c r="G16" s="78">
@@ -7841,7 +7841,7 @@
         <v>7.6196281621456863E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="76" t="s">
         <v>95</v>
@@ -7853,15 +7853,15 @@
         <v>5</v>
       </c>
       <c r="E17" s="77">
-        <f>(O16+O17)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F17" s="77">
-        <f>(P16+P17)/2</f>
+        <f t="shared" si="1"/>
         <v>5.7147211216092654E-2</v>
       </c>
       <c r="G17" s="78">
-        <f t="shared" ref="G17:G33" si="0">PRODUCT(C17:F17)</f>
+        <f t="shared" ref="G17:G33" si="2">PRODUCT(C17:F17)</f>
         <v>0.6967047999523639</v>
       </c>
       <c r="H17" s="79"/>
@@ -7893,7 +7893,7 @@
         <v>7.6196281621456863E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="76" t="s">
         <v>96</v>
@@ -7905,15 +7905,15 @@
         <v>5</v>
       </c>
       <c r="E18" s="77">
-        <f>(O17+O18)/2</f>
+        <f t="shared" si="0"/>
         <v>2.3620847302651629</v>
       </c>
       <c r="F18" s="77">
-        <f>(P17+P18)/2</f>
+        <f t="shared" si="1"/>
         <v>7.6196281621456877E-2</v>
       </c>
       <c r="G18" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.89991036660513679</v>
       </c>
       <c r="H18" s="79"/>
@@ -7945,7 +7945,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="76" t="s">
         <v>97</v>
@@ -7957,15 +7957,15 @@
         <v>5</v>
       </c>
       <c r="E19" s="77">
-        <f>(O18+O19)/2</f>
+        <f t="shared" si="0"/>
         <v>2.3620847302651629</v>
       </c>
       <c r="F19" s="77">
-        <f>(P18+P19)/2</f>
+        <f t="shared" si="1"/>
         <v>8.8895661891699687E-2</v>
       </c>
       <c r="G19" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0498954277059929</v>
       </c>
       <c r="H19" s="79"/>
@@ -7997,7 +7997,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="76" t="s">
         <v>98</v>
@@ -8009,15 +8009,15 @@
         <v>5</v>
       </c>
       <c r="E20" s="77">
-        <f>(O19+O20)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F20" s="77">
-        <f>(P19+P20)/2</f>
+        <f t="shared" si="1"/>
         <v>8.8895661891699687E-2</v>
       </c>
       <c r="G20" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0837630221481216</v>
       </c>
       <c r="H20" s="79"/>
@@ -8049,7 +8049,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="76" t="s">
         <v>99</v>
@@ -8061,15 +8061,15 @@
         <v>5</v>
       </c>
       <c r="E21" s="77">
-        <f>(O20+O21)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F21" s="77">
-        <f>(P20+P21)/2</f>
+        <f t="shared" si="1"/>
         <v>8.8895661891699687E-2</v>
       </c>
       <c r="G21" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0837630221481216</v>
       </c>
       <c r="H21" s="79"/>
@@ -8101,7 +8101,7 @@
         <v>9.5245352026821092E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="76" t="s">
         <v>100</v>
@@ -8113,15 +8113,15 @@
         <v>5</v>
       </c>
       <c r="E22" s="77">
-        <f>(O21+O22)/2</f>
+        <f t="shared" si="0"/>
         <v>2.9716549832368178</v>
       </c>
       <c r="F22" s="77">
-        <f>(P21+P22)/2</f>
+        <f t="shared" si="1"/>
         <v>8.8895661891699687E-2</v>
       </c>
       <c r="G22" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3208361832430233</v>
       </c>
       <c r="H22" s="79"/>
@@ -8153,7 +8153,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="76" t="s">
         <v>101</v>
@@ -8165,15 +8165,15 @@
         <v>3</v>
       </c>
       <c r="E23" s="77">
-        <f>(O22+O23)/2</f>
+        <f t="shared" si="0"/>
         <v>3.1240475464797317</v>
       </c>
       <c r="F23" s="77">
-        <f>(P22+P23)/2</f>
+        <f t="shared" si="1"/>
         <v>9.5245352026821078E-2</v>
       </c>
       <c r="G23" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.89265302493896614</v>
       </c>
       <c r="H23" s="79"/>
@@ -8205,7 +8205,7 @@
         <v>8.8895661891699687E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="76" t="s">
         <v>102</v>
@@ -8217,15 +8217,15 @@
         <v>5</v>
       </c>
       <c r="E24" s="77">
-        <f>(O23+O24)/2</f>
+        <f t="shared" si="0"/>
         <v>2.5906735751295336</v>
       </c>
       <c r="F24" s="77">
-        <f>(P23+P24)/2</f>
+        <f t="shared" si="1"/>
         <v>0.10159504216194248</v>
       </c>
       <c r="G24" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3159979554655763</v>
       </c>
       <c r="H24" s="79"/>
@@ -8257,7 +8257,7 @@
         <v>8.8895661891699687E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="76" t="s">
         <v>103</v>
@@ -8269,15 +8269,15 @@
         <v>5</v>
       </c>
       <c r="E25" s="77">
-        <f>(O24+O25)/2</f>
+        <f t="shared" si="0"/>
         <v>2.3239865894544343</v>
       </c>
       <c r="F25" s="77">
-        <f>(P24+P25)/2</f>
+        <f t="shared" si="1"/>
         <v>0.11429442243218531</v>
       </c>
       <c r="G25" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3280935249091936</v>
       </c>
       <c r="H25" s="79"/>
@@ -8309,7 +8309,7 @@
         <v>0.15239256324291373</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="76" t="s">
         <v>104</v>
@@ -8321,15 +8321,15 @@
         <v>5</v>
       </c>
       <c r="E26" s="77">
-        <f>(O25+O26)/2</f>
+        <f t="shared" si="0"/>
         <v>2.247790307832978</v>
       </c>
       <c r="F26" s="77">
-        <f>(P25+P26)/2</f>
+        <f t="shared" si="1"/>
         <v>0.12064411256730673</v>
       </c>
       <c r="G26" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3559133346295142</v>
       </c>
       <c r="H26" s="79"/>
@@ -8361,7 +8361,7 @@
         <v>0.12699380270242813</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="76" t="s">
         <v>105</v>
@@ -8373,15 +8373,15 @@
         <v>5</v>
       </c>
       <c r="E27" s="77">
-        <f>(O26+O27)/2</f>
+        <f t="shared" si="0"/>
         <v>2.2985370313928679</v>
       </c>
       <c r="F27" s="77">
-        <f>(P26+P27)/2</f>
+        <f t="shared" si="1"/>
         <v>0.10794473229706389</v>
       </c>
       <c r="G27" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2405748226429554</v>
       </c>
       <c r="H27" s="79"/>
@@ -8413,7 +8413,7 @@
         <v>0.12699380270242813</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="76" t="s">
         <v>106</v>
@@ -8425,15 +8425,15 @@
         <v>5</v>
       </c>
       <c r="E28" s="77">
-        <f>(O27+O28)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4006400487656201</v>
       </c>
       <c r="F28" s="77">
-        <f>(P27+P28)/2</f>
+        <f t="shared" si="1"/>
         <v>0.1206441125673067</v>
       </c>
       <c r="G28" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4481154413843205</v>
       </c>
       <c r="H28" s="79"/>
@@ -8465,7 +8465,7 @@
         <v>0.15239256324291373</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="76" t="s">
         <v>107</v>
@@ -8477,15 +8477,15 @@
         <v>5</v>
       </c>
       <c r="E29" s="77">
-        <f>(O28+O29)/2</f>
+        <f t="shared" si="0"/>
         <v>2.5022858884486436</v>
       </c>
       <c r="F29" s="77">
-        <f>(P28+P29)/2</f>
+        <f t="shared" si="1"/>
         <v>0.13334349283754954</v>
       </c>
       <c r="G29" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.668317702219265</v>
       </c>
       <c r="H29" s="79"/>
@@ -8517,7 +8517,7 @@
         <v>0.12699380270242813</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="76" t="s">
         <v>108</v>
@@ -8529,15 +8529,15 @@
         <v>5</v>
       </c>
       <c r="E30" s="77">
-        <f>(O29+O30)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4763791526973482</v>
       </c>
       <c r="F30" s="77">
-        <f>(P29+P30)/2</f>
+        <f t="shared" si="1"/>
         <v>0.11429442243218531</v>
       </c>
       <c r="G30" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4151816249032392</v>
       </c>
       <c r="H30" s="79"/>
@@ -8569,7 +8569,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="76" t="s">
         <v>109</v>
@@ -8581,15 +8581,15 @@
         <v>5</v>
       </c>
       <c r="E31" s="77">
-        <f>(O30+O31)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F31" s="77">
-        <f>(P30+P31)/2</f>
+        <f t="shared" si="1"/>
         <v>9.5245352026821078E-2</v>
       </c>
       <c r="G31" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1611746665872731</v>
       </c>
       <c r="H31" s="79"/>
@@ -8621,7 +8621,7 @@
         <v>8.8895661891699687E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="76" t="s">
         <v>110</v>
@@ -8633,15 +8633,15 @@
         <v>5</v>
       </c>
       <c r="E32" s="77">
-        <f>(O31+O32)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F32" s="77">
-        <f>(P31+P32)/2</f>
+        <f t="shared" si="1"/>
         <v>9.5245352026821078E-2</v>
       </c>
       <c r="G32" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1611746665872731</v>
       </c>
       <c r="H32" s="79"/>
@@ -8673,10 +8673,10 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="76" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33" s="75">
         <v>1</v>
@@ -8685,15 +8685,15 @@
         <v>4.3</v>
       </c>
       <c r="E33" s="77">
-        <f>(O32+O33)/2</f>
+        <f t="shared" si="0"/>
         <v>2.5144772935080768</v>
       </c>
       <c r="F33" s="77">
-        <f>(P32+P33)/2</f>
+        <f t="shared" si="1"/>
         <v>0.10159504216194248</v>
       </c>
       <c r="G33" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0984712345915604</v>
       </c>
       <c r="H33" s="79"/>
@@ -8725,7 +8725,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="76" t="s">
         <v>49</v>
@@ -8758,7 +8758,7 @@
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
     </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="76" t="s">
         <v>42</v>
@@ -8783,7 +8783,7 @@
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="76"/>
       <c r="C36" s="75"/>
@@ -8803,7 +8803,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>3</v>
       </c>
@@ -8811,14 +8811,14 @@
         <v>33</v>
       </c>
       <c r="C37" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="58">
-        <f t="shared" ref="G37" si="1">PRODUCT(C37:F37)</f>
-        <v>1</v>
+        <f t="shared" ref="G37" si="3">PRODUCT(C37:F37)</f>
+        <v>0</v>
       </c>
       <c r="H37" s="33" t="s">
         <v>34</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="J37" s="58">
         <f>G37*I37</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K37" s="32"/>
       <c r="M37" s="36"/>
@@ -8839,7 +8839,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="35"/>
       <c r="C38" s="30"/>
@@ -8859,7 +8859,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="79"/>
       <c r="B39" s="86" t="s">
         <v>17</v>
@@ -8873,11 +8873,11 @@
       <c r="I39" s="80"/>
       <c r="J39" s="80">
         <f>SUM(J11:J37)</f>
-        <v>40045.103192310678</v>
+        <v>39545.103192310678</v>
       </c>
       <c r="K39" s="75"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="88"/>
       <c r="B40" s="89"/>
       <c r="C40" s="89"/>
@@ -8890,19 +8890,17 @@
       <c r="J40" s="88"/>
       <c r="K40" s="89"/>
     </row>
-    <row r="41" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="125">
+        <v>113</v>
+      </c>
+      <c r="C41" s="127">
         <f>J39</f>
-        <v>40045.103192310678</v>
-      </c>
-      <c r="D41" s="125"/>
-      <c r="E41" s="78">
-        <v>100</v>
-      </c>
+        <v>39545.103192310678</v>
+      </c>
+      <c r="D41" s="127"/>
+      <c r="E41" s="92"/>
       <c r="F41" s="91"/>
       <c r="G41" s="92"/>
       <c r="H41" s="91"/>
@@ -8910,16 +8908,16 @@
       <c r="J41" s="94"/>
       <c r="K41" s="95"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="96"/>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="128">
+      <c r="C42" s="130">
         <v>35000</v>
       </c>
-      <c r="D42" s="128"/>
-      <c r="E42" s="78"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="114"/>
       <c r="F42" s="89"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
@@ -8927,19 +8925,19 @@
       <c r="J42" s="88"/>
       <c r="K42" s="89"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
       <c r="B43" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="128">
+      <c r="C43" s="131">
         <f>C42-C45-C46</f>
         <v>33250</v>
       </c>
-      <c r="D43" s="128"/>
+      <c r="D43" s="131"/>
       <c r="E43" s="78">
         <f>C43/C41*100</f>
-        <v>83.031375497577812</v>
+        <v>84.08120681416068</v>
       </c>
       <c r="F43" s="89"/>
       <c r="G43" s="88"/>
@@ -8948,19 +8946,19 @@
       <c r="J43" s="88"/>
       <c r="K43" s="89"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="96"/>
       <c r="B44" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="125">
+      <c r="C44" s="127">
         <f>C41-C43</f>
-        <v>6795.1031923106784</v>
-      </c>
-      <c r="D44" s="125"/>
+        <v>6295.1031923106784</v>
+      </c>
+      <c r="D44" s="127"/>
       <c r="E44" s="78">
         <f>100-E43</f>
-        <v>16.968624502422188</v>
+        <v>15.91879318583932</v>
       </c>
       <c r="F44" s="89"/>
       <c r="G44" s="88"/>
@@ -8969,16 +8967,16 @@
       <c r="J44" s="88"/>
       <c r="K44" s="89"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="96"/>
       <c r="B45" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="125">
+      <c r="C45" s="127">
         <f>C42*0.03</f>
         <v>1050</v>
       </c>
-      <c r="D45" s="125"/>
+      <c r="D45" s="127"/>
       <c r="E45" s="78">
         <v>3</v>
       </c>
@@ -8989,16 +8987,16 @@
       <c r="J45" s="88"/>
       <c r="K45" s="89"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
       <c r="B46" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="125">
+      <c r="C46" s="127">
         <f>C42*0.02</f>
         <v>700</v>
       </c>
-      <c r="D46" s="125"/>
+      <c r="D46" s="127"/>
       <c r="E46" s="78">
         <v>2</v>
       </c>
@@ -9009,7 +9007,7 @@
       <c r="J46" s="88"/>
       <c r="K46" s="89"/>
     </row>
-    <row r="47" spans="1:20" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="97"/>
       <c r="B47" s="97"/>
       <c r="C47" s="97"/>
@@ -9022,65 +9020,103 @@
       <c r="J47" s="97"/>
       <c r="K47" s="97"/>
     </row>
-    <row r="48" spans="1:20" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:20" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="74">
+        <f>13490/300</f>
+        <v>44.966666666666669</v>
+      </c>
+      <c r="N48">
+        <f>446551.8/300</f>
+        <v>1488.5059999999999</v>
+      </c>
+      <c r="O48">
+        <f>48114/300</f>
+        <v>160.38</v>
+      </c>
+    </row>
+    <row r="49" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N49"/>
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="74">
+        <f>M48*G34</f>
+        <v>931.87645237792003</v>
+      </c>
+      <c r="N50">
+        <f>N48*G34</f>
+        <v>30847.37636671419</v>
+      </c>
+      <c r="O50">
+        <f>O48*G34</f>
+        <v>3323.6696537962375</v>
+      </c>
+    </row>
+    <row r="51" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f>N50*0.13</f>
+        <v>4010.158927672845</v>
+      </c>
+      <c r="O51">
+        <f>O50*0.13</f>
+        <v>432.0770549935109</v>
+      </c>
+      <c r="P51" s="74">
+        <f>SUM(N51:O51)</f>
+        <v>4442.235982666356</v>
+      </c>
+    </row>
+    <row r="52" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N52"/>
+      <c r="O52"/>
+    </row>
+    <row r="53" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="13:16" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="A7:F7"/>
@@ -9089,6 +9125,13 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -9103,131 +9146,131 @@
   <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="2"/>
       <c r="I6" s="111"/>
       <c r="J6" s="111"/>
       <c r="K6" s="108" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="3"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="109" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -9262,7 +9305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="138" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="107">
         <v>1</v>
       </c>
@@ -9279,7 +9322,7 @@
       <c r="J9" s="75"/>
       <c r="K9" s="75"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="76" t="s">
         <v>90</v>
@@ -9313,7 +9356,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="76" t="s">
         <v>49</v>
@@ -9345,7 +9388,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="76" t="s">
         <v>42</v>
@@ -9370,7 +9413,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="35"/>
       <c r="C13" s="30"/>
@@ -9390,7 +9433,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2</v>
       </c>
@@ -9414,7 +9457,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="76" t="s">
         <v>93</v>
@@ -9453,7 +9496,7 @@
         <v>7.6196281621456863E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="76" t="s">
         <v>94</v>
@@ -9465,11 +9508,11 @@
         <v>5</v>
       </c>
       <c r="E16" s="77">
-        <f>(O15+O16)/2</f>
+        <f t="shared" ref="E16:E33" si="0">(O15+O16)/2</f>
         <v>1.9811033221578787</v>
       </c>
       <c r="F16" s="77">
-        <f>(P15+P16)/2</f>
+        <f t="shared" ref="F16:F33" si="1">(P15+P16)/2</f>
         <v>5.0797521080971242E-2</v>
       </c>
       <c r="G16" s="78">
@@ -9505,7 +9548,7 @@
         <v>7.6196281621456863E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="76" t="s">
         <v>95</v>
@@ -9517,15 +9560,15 @@
         <v>5</v>
       </c>
       <c r="E17" s="77">
-        <f>(O16+O17)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F17" s="77">
-        <f>(P16+P17)/2</f>
+        <f t="shared" si="1"/>
         <v>5.7147211216092654E-2</v>
       </c>
       <c r="G17" s="78">
-        <f t="shared" ref="G17:G33" si="0">PRODUCT(C17:F17)</f>
+        <f t="shared" ref="G17:G33" si="2">PRODUCT(C17:F17)</f>
         <v>0.6967047999523639</v>
       </c>
       <c r="H17" s="79"/>
@@ -9557,7 +9600,7 @@
         <v>7.6196281621456863E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="76" t="s">
         <v>96</v>
@@ -9569,15 +9612,15 @@
         <v>5</v>
       </c>
       <c r="E18" s="77">
-        <f>(O17+O18)/2</f>
+        <f t="shared" si="0"/>
         <v>2.3620847302651629</v>
       </c>
       <c r="F18" s="77">
-        <f>(P17+P18)/2</f>
+        <f t="shared" si="1"/>
         <v>7.6196281621456877E-2</v>
       </c>
       <c r="G18" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.89991036660513679</v>
       </c>
       <c r="H18" s="79"/>
@@ -9609,7 +9652,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="76" t="s">
         <v>97</v>
@@ -9621,15 +9664,15 @@
         <v>5</v>
       </c>
       <c r="E19" s="77">
-        <f>(O18+O19)/2</f>
+        <f t="shared" si="0"/>
         <v>2.3620847302651629</v>
       </c>
       <c r="F19" s="77">
-        <f>(P18+P19)/2</f>
+        <f t="shared" si="1"/>
         <v>8.8895661891699687E-2</v>
       </c>
       <c r="G19" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0498954277059929</v>
       </c>
       <c r="H19" s="79"/>
@@ -9661,7 +9704,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="76" t="s">
         <v>98</v>
@@ -9673,15 +9716,15 @@
         <v>5</v>
       </c>
       <c r="E20" s="77">
-        <f>(O19+O20)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F20" s="77">
-        <f>(P19+P20)/2</f>
+        <f t="shared" si="1"/>
         <v>8.8895661891699687E-2</v>
       </c>
       <c r="G20" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0837630221481216</v>
       </c>
       <c r="H20" s="79"/>
@@ -9713,7 +9756,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="76" t="s">
         <v>99</v>
@@ -9725,15 +9768,15 @@
         <v>5</v>
       </c>
       <c r="E21" s="77">
-        <f>(O20+O21)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F21" s="77">
-        <f>(P20+P21)/2</f>
+        <f t="shared" si="1"/>
         <v>8.8895661891699687E-2</v>
       </c>
       <c r="G21" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0837630221481216</v>
       </c>
       <c r="H21" s="79"/>
@@ -9765,7 +9808,7 @@
         <v>9.5245352026821092E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="76" t="s">
         <v>100</v>
@@ -9777,15 +9820,15 @@
         <v>5</v>
       </c>
       <c r="E22" s="77">
-        <f>(O21+O22)/2</f>
+        <f t="shared" si="0"/>
         <v>2.9716549832368178</v>
       </c>
       <c r="F22" s="77">
-        <f>(P21+P22)/2</f>
+        <f t="shared" si="1"/>
         <v>8.8895661891699687E-2</v>
       </c>
       <c r="G22" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3208361832430233</v>
       </c>
       <c r="H22" s="79"/>
@@ -9817,7 +9860,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="76" t="s">
         <v>101</v>
@@ -9829,15 +9872,15 @@
         <v>3</v>
       </c>
       <c r="E23" s="77">
-        <f>(O22+O23)/2</f>
+        <f t="shared" si="0"/>
         <v>3.1240475464797317</v>
       </c>
       <c r="F23" s="77">
-        <f>(P22+P23)/2</f>
+        <f t="shared" si="1"/>
         <v>9.5245352026821078E-2</v>
       </c>
       <c r="G23" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.89265302493896614</v>
       </c>
       <c r="H23" s="79"/>
@@ -9869,7 +9912,7 @@
         <v>8.8895661891699687E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="76" t="s">
         <v>102</v>
@@ -9881,15 +9924,15 @@
         <v>5</v>
       </c>
       <c r="E24" s="77">
-        <f>(O23+O24)/2</f>
+        <f t="shared" si="0"/>
         <v>2.5906735751295336</v>
       </c>
       <c r="F24" s="77">
-        <f>(P23+P24)/2</f>
+        <f t="shared" si="1"/>
         <v>0.10159504216194248</v>
       </c>
       <c r="G24" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3159979554655763</v>
       </c>
       <c r="H24" s="79"/>
@@ -9921,7 +9964,7 @@
         <v>8.8895661891699687E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="76" t="s">
         <v>103</v>
@@ -9933,15 +9976,15 @@
         <v>5</v>
       </c>
       <c r="E25" s="77">
-        <f>(O24+O25)/2</f>
+        <f t="shared" si="0"/>
         <v>2.3239865894544343</v>
       </c>
       <c r="F25" s="77">
-        <f>(P24+P25)/2</f>
+        <f t="shared" si="1"/>
         <v>0.11429442243218531</v>
       </c>
       <c r="G25" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3280935249091936</v>
       </c>
       <c r="H25" s="79"/>
@@ -9973,7 +10016,7 @@
         <v>0.15239256324291373</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="76" t="s">
         <v>104</v>
@@ -9985,15 +10028,15 @@
         <v>5</v>
       </c>
       <c r="E26" s="77">
-        <f>(O25+O26)/2</f>
+        <f t="shared" si="0"/>
         <v>2.247790307832978</v>
       </c>
       <c r="F26" s="77">
-        <f>(P25+P26)/2</f>
+        <f t="shared" si="1"/>
         <v>0.12064411256730673</v>
       </c>
       <c r="G26" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3559133346295142</v>
       </c>
       <c r="H26" s="79"/>
@@ -10025,7 +10068,7 @@
         <v>0.12699380270242813</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="76" t="s">
         <v>105</v>
@@ -10037,15 +10080,15 @@
         <v>5</v>
       </c>
       <c r="E27" s="77">
-        <f>(O26+O27)/2</f>
+        <f t="shared" si="0"/>
         <v>2.2985370313928679</v>
       </c>
       <c r="F27" s="77">
-        <f>(P26+P27)/2</f>
+        <f t="shared" si="1"/>
         <v>0.10794473229706389</v>
       </c>
       <c r="G27" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2405748226429554</v>
       </c>
       <c r="H27" s="79"/>
@@ -10077,7 +10120,7 @@
         <v>0.12699380270242813</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="76" t="s">
         <v>106</v>
@@ -10089,15 +10132,15 @@
         <v>5</v>
       </c>
       <c r="E28" s="77">
-        <f>(O27+O28)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4006400487656201</v>
       </c>
       <c r="F28" s="77">
-        <f>(P27+P28)/2</f>
+        <f t="shared" si="1"/>
         <v>0.1206441125673067</v>
       </c>
       <c r="G28" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4481154413843205</v>
       </c>
       <c r="H28" s="79"/>
@@ -10129,7 +10172,7 @@
         <v>0.15239256324291373</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="76" t="s">
         <v>107</v>
@@ -10141,15 +10184,15 @@
         <v>5</v>
       </c>
       <c r="E29" s="77">
-        <f>(O28+O29)/2</f>
+        <f t="shared" si="0"/>
         <v>2.5022858884486436</v>
       </c>
       <c r="F29" s="77">
-        <f>(P28+P29)/2</f>
+        <f t="shared" si="1"/>
         <v>0.13334349283754954</v>
       </c>
       <c r="G29" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.668317702219265</v>
       </c>
       <c r="H29" s="79"/>
@@ -10181,7 +10224,7 @@
         <v>0.12699380270242813</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="76" t="s">
         <v>108</v>
@@ -10193,15 +10236,15 @@
         <v>5</v>
       </c>
       <c r="E30" s="77">
-        <f>(O29+O30)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4763791526973482</v>
       </c>
       <c r="F30" s="77">
-        <f>(P29+P30)/2</f>
+        <f t="shared" si="1"/>
         <v>0.11429442243218531</v>
       </c>
       <c r="G30" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4151816249032392</v>
       </c>
       <c r="H30" s="79"/>
@@ -10233,7 +10276,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="76" t="s">
         <v>109</v>
@@ -10245,15 +10288,15 @@
         <v>5</v>
       </c>
       <c r="E31" s="77">
-        <f>(O30+O31)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F31" s="77">
-        <f>(P30+P31)/2</f>
+        <f t="shared" si="1"/>
         <v>9.5245352026821078E-2</v>
       </c>
       <c r="G31" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1611746665872731</v>
       </c>
       <c r="H31" s="79"/>
@@ -10285,7 +10328,7 @@
         <v>8.8895661891699687E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="76" t="s">
         <v>110</v>
@@ -10297,15 +10340,15 @@
         <v>5</v>
       </c>
       <c r="E32" s="77">
-        <f>(O31+O32)/2</f>
+        <f t="shared" si="0"/>
         <v>2.4382810118866196</v>
       </c>
       <c r="F32" s="77">
-        <f>(P31+P32)/2</f>
+        <f t="shared" si="1"/>
         <v>9.5245352026821078E-2</v>
       </c>
       <c r="G32" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1611746665872731</v>
       </c>
       <c r="H32" s="79"/>
@@ -10337,10 +10380,10 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="76" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33" s="75">
         <v>1</v>
@@ -10349,15 +10392,15 @@
         <v>4.3</v>
       </c>
       <c r="E33" s="77">
-        <f>(O32+O33)/2</f>
+        <f t="shared" si="0"/>
         <v>2.5144772935080768</v>
       </c>
       <c r="F33" s="77">
-        <f>(P32+P33)/2</f>
+        <f t="shared" si="1"/>
         <v>0.10159504216194248</v>
       </c>
       <c r="G33" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0984712345915604</v>
       </c>
       <c r="H33" s="79"/>
@@ -10389,7 +10432,7 @@
         <v>0.10159504216194248</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="76" t="s">
         <v>49</v>
@@ -10422,7 +10465,7 @@
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
     </row>
-    <row r="35" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="76" t="s">
         <v>42</v>
@@ -10447,7 +10490,7 @@
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="76"/>
       <c r="C36" s="75"/>
@@ -10467,7 +10510,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>3</v>
       </c>
@@ -10475,14 +10518,14 @@
         <v>33</v>
       </c>
       <c r="C37" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="58">
-        <f t="shared" ref="G37" si="1">PRODUCT(C37:F37)</f>
-        <v>1</v>
+        <f t="shared" ref="G37" si="3">PRODUCT(C37:F37)</f>
+        <v>0</v>
       </c>
       <c r="H37" s="33" t="s">
         <v>34</v>
@@ -10492,7 +10535,7 @@
       </c>
       <c r="J37" s="58">
         <f>G37*I37</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K37" s="32"/>
       <c r="M37" s="36"/>
@@ -10503,7 +10546,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="35"/>
       <c r="C38" s="30"/>
@@ -10523,7 +10566,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="79"/>
       <c r="B39" s="86" t="s">
         <v>17</v>
@@ -10537,11 +10580,11 @@
       <c r="I39" s="80"/>
       <c r="J39" s="80">
         <f>SUM(J11:J37)</f>
-        <v>40045.103192310678</v>
+        <v>39545.103192310678</v>
       </c>
       <c r="K39" s="75"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="88"/>
       <c r="B40" s="89"/>
       <c r="C40" s="89"/>
@@ -10554,16 +10597,16 @@
       <c r="J40" s="88"/>
       <c r="K40" s="89"/>
     </row>
-    <row r="41" spans="1:20" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="125">
+        <v>113</v>
+      </c>
+      <c r="C41" s="127">
         <f>J39</f>
-        <v>40045.103192310678</v>
-      </c>
-      <c r="D41" s="125"/>
+        <v>39545.103192310678</v>
+      </c>
+      <c r="D41" s="127"/>
       <c r="E41" s="78">
         <v>100</v>
       </c>
@@ -10574,15 +10617,15 @@
       <c r="J41" s="94"/>
       <c r="K41" s="95"/>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="96"/>
       <c r="B42" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="128">
+      <c r="C42" s="131">
         <v>35000</v>
       </c>
-      <c r="D42" s="128"/>
+      <c r="D42" s="131"/>
       <c r="E42" s="78"/>
       <c r="F42" s="89"/>
       <c r="G42" s="88"/>
@@ -10591,19 +10634,19 @@
       <c r="J42" s="88"/>
       <c r="K42" s="89"/>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
       <c r="B43" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="128">
+      <c r="C43" s="131">
         <f>C42-C45-C46</f>
         <v>33250</v>
       </c>
-      <c r="D43" s="128"/>
+      <c r="D43" s="131"/>
       <c r="E43" s="78">
         <f>C43/C41*100</f>
-        <v>83.031375497577812</v>
+        <v>84.08120681416068</v>
       </c>
       <c r="F43" s="89"/>
       <c r="G43" s="88"/>
@@ -10612,19 +10655,19 @@
       <c r="J43" s="88"/>
       <c r="K43" s="89"/>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="96"/>
       <c r="B44" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="125">
+      <c r="C44" s="127">
         <f>C41-C43</f>
-        <v>6795.1031923106784</v>
-      </c>
-      <c r="D44" s="125"/>
+        <v>6295.1031923106784</v>
+      </c>
+      <c r="D44" s="127"/>
       <c r="E44" s="78">
         <f>100-E43</f>
-        <v>16.968624502422188</v>
+        <v>15.91879318583932</v>
       </c>
       <c r="F44" s="89"/>
       <c r="G44" s="88"/>
@@ -10633,16 +10676,16 @@
       <c r="J44" s="88"/>
       <c r="K44" s="89"/>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="96"/>
       <c r="B45" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="125">
+      <c r="C45" s="127">
         <f>C42*0.03</f>
         <v>1050</v>
       </c>
-      <c r="D45" s="125"/>
+      <c r="D45" s="127"/>
       <c r="E45" s="78">
         <v>3</v>
       </c>
@@ -10653,16 +10696,16 @@
       <c r="J45" s="88"/>
       <c r="K45" s="89"/>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
       <c r="B46" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="125">
+      <c r="C46" s="127">
         <f>C42*0.02</f>
         <v>700</v>
       </c>
-      <c r="D46" s="125"/>
+      <c r="D46" s="127"/>
       <c r="E46" s="78">
         <v>2</v>
       </c>
@@ -10673,7 +10716,7 @@
       <c r="J46" s="88"/>
       <c r="K46" s="89"/>
     </row>
-    <row r="47" spans="1:20" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="97"/>
       <c r="B47" s="97"/>
       <c r="C47" s="97"/>
@@ -10686,58 +10729,64 @@
       <c r="J47" s="97"/>
       <c r="K47" s="97"/>
     </row>
-    <row r="48" spans="1:20" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:20" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="A7:F7"/>
@@ -10745,12 +10794,6 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -10768,130 +10811,130 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -10926,7 +10969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="138" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="107">
         <v>1</v>
       </c>
@@ -10943,7 +10986,7 @@
       <c r="J9" s="75"/>
       <c r="K9" s="75"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="76" t="s">
         <v>90</v>
@@ -10977,7 +11020,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="76" t="s">
         <v>49</v>
@@ -11009,7 +11052,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="76" t="s">
         <v>42</v>
@@ -11034,7 +11077,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="35"/>
       <c r="C13" s="30"/>
@@ -11054,7 +11097,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2</v>
       </c>
@@ -11078,7 +11121,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="76" t="s">
         <v>90</v>
@@ -11123,7 +11166,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="76" t="s">
         <v>49</v>
@@ -11159,7 +11202,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="76" t="s">
         <v>42</v>
@@ -11184,7 +11227,7 @@
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="76"/>
       <c r="C18" s="75"/>
@@ -11204,7 +11247,7 @@
       <c r="R18" s="36"/>
       <c r="S18" s="36"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>3</v>
       </c>
@@ -11240,7 +11283,7 @@
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="35"/>
       <c r="C20" s="30"/>
@@ -11260,7 +11303,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="79"/>
       <c r="B21" s="86" t="s">
         <v>17</v>
@@ -11278,7 +11321,7 @@
       </c>
       <c r="K21" s="75"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
       <c r="C22" s="89"/>
@@ -11291,16 +11334,16 @@
       <c r="J22" s="88"/>
       <c r="K22" s="89"/>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="125">
+      <c r="C23" s="127">
         <f>J21</f>
         <v>43945.753416641266</v>
       </c>
-      <c r="D23" s="125"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="78">
         <v>100</v>
       </c>
@@ -11311,15 +11354,15 @@
       <c r="J23" s="94"/>
       <c r="K23" s="95"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="96"/>
       <c r="B24" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="128">
+      <c r="C24" s="131">
         <v>35000</v>
       </c>
-      <c r="D24" s="128"/>
+      <c r="D24" s="131"/>
       <c r="E24" s="78"/>
       <c r="F24" s="89"/>
       <c r="G24" s="88"/>
@@ -11328,16 +11371,16 @@
       <c r="J24" s="88"/>
       <c r="K24" s="89"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="96"/>
       <c r="B25" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="128">
+      <c r="C25" s="131">
         <f>C24-C27-C28</f>
         <v>33250</v>
       </c>
-      <c r="D25" s="128"/>
+      <c r="D25" s="131"/>
       <c r="E25" s="78">
         <f>C25/C23*100</f>
         <v>75.661463087828125</v>
@@ -11349,16 +11392,16 @@
       <c r="J25" s="88"/>
       <c r="K25" s="89"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
       <c r="B26" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26" s="127">
         <f>C23-C25</f>
         <v>10695.753416641266</v>
       </c>
-      <c r="D26" s="125"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="78">
         <f>100-E25</f>
         <v>24.338536912171875</v>
@@ -11370,16 +11413,16 @@
       <c r="J26" s="88"/>
       <c r="K26" s="89"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="96"/>
       <c r="B27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="127">
         <f>C24*0.03</f>
         <v>1050</v>
       </c>
-      <c r="D27" s="125"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="78">
         <v>3</v>
       </c>
@@ -11390,16 +11433,16 @@
       <c r="J27" s="88"/>
       <c r="K27" s="89"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="96"/>
       <c r="B28" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28" s="127">
         <f>C24*0.02</f>
         <v>700</v>
       </c>
-      <c r="D28" s="125"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="78">
         <v>2</v>
       </c>
@@ -11410,7 +11453,7 @@
       <c r="J28" s="88"/>
       <c r="K28" s="89"/>
     </row>
-    <row r="29" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
@@ -11423,58 +11466,65 @@
       <c r="J29" s="97"/>
       <c r="K29" s="97"/>
     </row>
-    <row r="30" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A7:F7"/>
@@ -11483,13 +11533,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -11507,130 +11550,130 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -11665,7 +11708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>1</v>
       </c>
@@ -11682,7 +11725,7 @@
       <c r="J9" s="75"/>
       <c r="K9" s="75"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="76" t="s">
         <v>65</v>
@@ -11716,7 +11759,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="76" t="s">
         <v>51</v>
@@ -11750,7 +11793,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="76" t="s">
         <v>49</v>
@@ -11782,7 +11825,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="76" t="s">
         <v>42</v>
@@ -11807,7 +11850,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="35"/>
       <c r="C14" s="30"/>
@@ -11827,7 +11870,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2</v>
       </c>
@@ -11851,7 +11894,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="76" t="str">
         <f>B11</f>
@@ -11886,7 +11929,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
       <c r="B17" s="76" t="s">
         <v>49</v>
@@ -11911,7 +11954,7 @@
       </c>
       <c r="K17" s="75"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
       <c r="B18" s="76" t="s">
         <v>42</v>
@@ -11929,7 +11972,7 @@
       </c>
       <c r="K18" s="75"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
       <c r="B19" s="76"/>
       <c r="C19" s="81"/>
@@ -11942,7 +11985,7 @@
       <c r="J19" s="84"/>
       <c r="K19" s="75"/>
     </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -11966,7 +12009,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="76" t="str">
         <f>B16</f>
@@ -12000,7 +12043,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
       <c r="B22" s="76" t="s">
         <v>49</v>
@@ -12025,7 +12068,7 @@
       </c>
       <c r="K22" s="75"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="79"/>
       <c r="B23" s="76" t="s">
         <v>42</v>
@@ -12043,7 +12086,7 @@
       </c>
       <c r="K23" s="75"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
       <c r="B24" s="76"/>
       <c r="C24" s="81"/>
@@ -12056,7 +12099,7 @@
       <c r="J24" s="84"/>
       <c r="K24" s="75"/>
     </row>
-    <row r="25" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>5</v>
       </c>
@@ -12080,7 +12123,7 @@
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
     </row>
-    <row r="26" spans="1:19" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="76" t="s">
         <v>80</v>
@@ -12107,7 +12150,7 @@
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="79"/>
       <c r="B27" s="76" t="s">
         <v>49</v>
@@ -12132,7 +12175,7 @@
       </c>
       <c r="K27" s="75"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79"/>
       <c r="B28" s="76" t="s">
         <v>42</v>
@@ -12150,7 +12193,7 @@
       </c>
       <c r="K28" s="75"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="79"/>
       <c r="B29" s="76"/>
       <c r="C29" s="81"/>
@@ -12163,7 +12206,7 @@
       <c r="J29" s="84"/>
       <c r="K29" s="75"/>
     </row>
-    <row r="30" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>6</v>
       </c>
@@ -12187,7 +12230,7 @@
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="76" t="str">
         <f>B26</f>
@@ -12222,7 +12265,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="76" t="s">
         <v>69</v>
@@ -12262,7 +12305,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
       <c r="B33" s="76" t="s">
         <v>49</v>
@@ -12299,7 +12342,7 @@
         <v>0.58473026516306004</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="79"/>
       <c r="B34" s="76" t="s">
         <v>42</v>
@@ -12317,7 +12360,7 @@
       </c>
       <c r="K34" s="75"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="79"/>
       <c r="B35" s="76"/>
       <c r="C35" s="81"/>
@@ -12330,7 +12373,7 @@
       <c r="J35" s="84"/>
       <c r="K35" s="75"/>
     </row>
-    <row r="36" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>7</v>
       </c>
@@ -12354,7 +12397,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="76" t="s">
         <v>67</v>
@@ -12393,7 +12436,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="76" t="s">
         <v>49</v>
@@ -12428,7 +12471,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="76" t="s">
         <v>42</v>
@@ -12453,7 +12496,7 @@
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="76"/>
       <c r="C40" s="75"/>
@@ -12473,7 +12516,7 @@
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>8</v>
       </c>
@@ -12509,7 +12552,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="35"/>
       <c r="C42" s="30"/>
@@ -12529,7 +12572,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="79"/>
       <c r="B43" s="86" t="s">
         <v>17</v>
@@ -12547,7 +12590,7 @@
       </c>
       <c r="K43" s="75"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="88"/>
       <c r="B44" s="89"/>
       <c r="C44" s="89"/>
@@ -12560,16 +12603,16 @@
       <c r="J44" s="88"/>
       <c r="K44" s="89"/>
     </row>
-    <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="125">
+      <c r="C45" s="127">
         <f>J43</f>
         <v>567994.51733539614</v>
       </c>
-      <c r="D45" s="125"/>
+      <c r="D45" s="127"/>
       <c r="E45" s="78">
         <v>100</v>
       </c>
@@ -12580,15 +12623,15 @@
       <c r="J45" s="94"/>
       <c r="K45" s="95"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
       <c r="B46" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="128">
+      <c r="C46" s="131">
         <v>500000</v>
       </c>
-      <c r="D46" s="128"/>
+      <c r="D46" s="131"/>
       <c r="E46" s="78"/>
       <c r="F46" s="89"/>
       <c r="G46" s="88"/>
@@ -12597,16 +12640,16 @@
       <c r="J46" s="88"/>
       <c r="K46" s="89"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="96"/>
       <c r="B47" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="128">
+      <c r="C47" s="131">
         <f>C46-C49-C50</f>
         <v>475000</v>
       </c>
-      <c r="D47" s="128"/>
+      <c r="D47" s="131"/>
       <c r="E47" s="78">
         <f>C47/C45*100</f>
         <v>83.627567785045414</v>
@@ -12618,16 +12661,16 @@
       <c r="J47" s="88"/>
       <c r="K47" s="89"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="96"/>
       <c r="B48" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="125">
+      <c r="C48" s="127">
         <f>C45-C47</f>
         <v>92994.517335396144</v>
       </c>
-      <c r="D48" s="125"/>
+      <c r="D48" s="127"/>
       <c r="E48" s="78">
         <f>100-E47</f>
         <v>16.372432214954586</v>
@@ -12639,16 +12682,16 @@
       <c r="J48" s="88"/>
       <c r="K48" s="89"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="96"/>
       <c r="B49" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="125">
+      <c r="C49" s="127">
         <f>C46*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D49" s="125"/>
+      <c r="D49" s="127"/>
       <c r="E49" s="78">
         <v>3</v>
       </c>
@@ -12659,16 +12702,16 @@
       <c r="J49" s="88"/>
       <c r="K49" s="89"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="96"/>
       <c r="B50" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="125">
+      <c r="C50" s="127">
         <f>C46*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D50" s="125"/>
+      <c r="D50" s="127"/>
       <c r="E50" s="78">
         <v>2</v>
       </c>
@@ -12679,7 +12722,7 @@
       <c r="J50" s="88"/>
       <c r="K50" s="89"/>
     </row>
-    <row r="51" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="97"/>
       <c r="B51" s="97"/>
       <c r="C51" s="97"/>
@@ -12692,62 +12735,62 @@
       <c r="J51" s="97"/>
       <c r="K51" s="97"/>
     </row>
-    <row r="52" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A7:F7"/>
@@ -12779,130 +12822,130 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -12937,7 +12980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>1</v>
       </c>
@@ -12954,7 +12997,7 @@
       <c r="J9" s="75"/>
       <c r="K9" s="75"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="76" t="s">
         <v>65</v>
@@ -12991,7 +13034,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="76"/>
       <c r="C11" s="75">
@@ -13023,7 +13066,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="76" t="s">
         <v>51</v>
@@ -13057,7 +13100,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="76" t="s">
         <v>49</v>
@@ -13089,7 +13132,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="76" t="s">
         <v>42</v>
@@ -13114,7 +13157,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="35"/>
       <c r="C15" s="30"/>
@@ -13134,7 +13177,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>2</v>
       </c>
@@ -13158,7 +13201,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="76" t="str">
         <f>B12</f>
@@ -13193,7 +13236,7 @@
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
       <c r="B18" s="76" t="s">
         <v>49</v>
@@ -13218,7 +13261,7 @@
       </c>
       <c r="K18" s="75"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
       <c r="B19" s="76" t="s">
         <v>42</v>
@@ -13236,7 +13279,7 @@
       </c>
       <c r="K19" s="75"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
       <c r="B20" s="76"/>
       <c r="C20" s="81"/>
@@ -13249,7 +13292,7 @@
       <c r="J20" s="84"/>
       <c r="K20" s="75"/>
     </row>
-    <row r="21" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>3</v>
       </c>
@@ -13273,7 +13316,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="76" t="str">
         <f>B17</f>
@@ -13307,7 +13350,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="79"/>
       <c r="B23" s="76" t="s">
         <v>49</v>
@@ -13332,7 +13375,7 @@
       </c>
       <c r="K23" s="75"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
       <c r="B24" s="76" t="s">
         <v>42</v>
@@ -13350,7 +13393,7 @@
       </c>
       <c r="K24" s="75"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="79"/>
       <c r="B25" s="76"/>
       <c r="C25" s="81"/>
@@ -13363,7 +13406,7 @@
       <c r="J25" s="84"/>
       <c r="K25" s="75"/>
     </row>
-    <row r="26" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>5</v>
       </c>
@@ -13387,7 +13430,7 @@
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
     </row>
-    <row r="27" spans="1:19" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="76" t="s">
         <v>83</v>
@@ -13414,7 +13457,7 @@
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79"/>
       <c r="B28" s="76" t="s">
         <v>49</v>
@@ -13439,7 +13482,7 @@
       </c>
       <c r="K28" s="75"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="79"/>
       <c r="B29" s="76" t="s">
         <v>42</v>
@@ -13457,7 +13500,7 @@
       </c>
       <c r="K29" s="75"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="79"/>
       <c r="B30" s="76"/>
       <c r="C30" s="81"/>
@@ -13470,7 +13513,7 @@
       <c r="J30" s="84"/>
       <c r="K30" s="75"/>
     </row>
-    <row r="31" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>6</v>
       </c>
@@ -13494,7 +13537,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="76" t="str">
         <f>B27</f>
@@ -13529,7 +13572,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="76" t="s">
         <v>69</v>
@@ -13569,7 +13612,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="79"/>
       <c r="B34" s="76" t="s">
         <v>49</v>
@@ -13606,7 +13649,7 @@
         <v>0.58473026516306004</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="79"/>
       <c r="B35" s="76" t="s">
         <v>42</v>
@@ -13624,7 +13667,7 @@
       </c>
       <c r="K35" s="75"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="79"/>
       <c r="B36" s="76"/>
       <c r="C36" s="81"/>
@@ -13637,7 +13680,7 @@
       <c r="J36" s="84"/>
       <c r="K36" s="75"/>
     </row>
-    <row r="37" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>7</v>
       </c>
@@ -13661,7 +13704,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="76" t="s">
         <v>67</v>
@@ -13700,7 +13743,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="76" t="s">
         <v>49</v>
@@ -13735,7 +13778,7 @@
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="76" t="s">
         <v>42</v>
@@ -13760,7 +13803,7 @@
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="76"/>
       <c r="C41" s="75"/>
@@ -13780,7 +13823,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>8</v>
       </c>
@@ -13804,7 +13847,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="76" t="s">
         <v>68</v>
@@ -13843,7 +13886,7 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="76" t="s">
         <v>49</v>
@@ -13878,7 +13921,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="76" t="s">
         <v>42</v>
@@ -13903,7 +13946,7 @@
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="76"/>
       <c r="C46" s="75"/>
@@ -13923,7 +13966,7 @@
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>9</v>
       </c>
@@ -13959,7 +14002,7 @@
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="35"/>
       <c r="C48" s="30"/>
@@ -13979,7 +14022,7 @@
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="79"/>
       <c r="B49" s="86" t="s">
         <v>17</v>
@@ -13997,7 +14040,7 @@
       </c>
       <c r="K49" s="75"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
       <c r="C50" s="89"/>
@@ -14010,16 +14053,16 @@
       <c r="J50" s="88"/>
       <c r="K50" s="89"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="125">
+      <c r="C51" s="127">
         <f>J49</f>
         <v>560312.25104410131</v>
       </c>
-      <c r="D51" s="125"/>
+      <c r="D51" s="127"/>
       <c r="E51" s="78">
         <v>100</v>
       </c>
@@ -14030,15 +14073,15 @@
       <c r="J51" s="94"/>
       <c r="K51" s="95"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="96"/>
       <c r="B52" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="128">
+      <c r="C52" s="131">
         <v>500000</v>
       </c>
-      <c r="D52" s="128"/>
+      <c r="D52" s="131"/>
       <c r="E52" s="78"/>
       <c r="F52" s="89"/>
       <c r="G52" s="88"/>
@@ -14047,16 +14090,16 @@
       <c r="J52" s="88"/>
       <c r="K52" s="89"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="96"/>
       <c r="B53" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="128">
+      <c r="C53" s="131">
         <f>C52-C55-C56</f>
         <v>475000</v>
       </c>
-      <c r="D53" s="128"/>
+      <c r="D53" s="131"/>
       <c r="E53" s="78">
         <f>C53/C51*100</f>
         <v>84.774159250466482</v>
@@ -14068,16 +14111,16 @@
       <c r="J53" s="88"/>
       <c r="K53" s="89"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="96"/>
       <c r="B54" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="125">
+      <c r="C54" s="127">
         <f>C51-C53</f>
         <v>85312.251044101315</v>
       </c>
-      <c r="D54" s="125"/>
+      <c r="D54" s="127"/>
       <c r="E54" s="78">
         <f>100-E53</f>
         <v>15.225840749533518</v>
@@ -14089,16 +14132,16 @@
       <c r="J54" s="88"/>
       <c r="K54" s="89"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="96"/>
       <c r="B55" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="125">
+      <c r="C55" s="127">
         <f>C52*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D55" s="125"/>
+      <c r="D55" s="127"/>
       <c r="E55" s="78">
         <v>3</v>
       </c>
@@ -14109,16 +14152,16 @@
       <c r="J55" s="88"/>
       <c r="K55" s="89"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="96"/>
       <c r="B56" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="125">
+      <c r="C56" s="127">
         <f>C52*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D56" s="125"/>
+      <c r="D56" s="127"/>
       <c r="E56" s="78">
         <v>2</v>
       </c>
@@ -14129,7 +14172,7 @@
       <c r="J56" s="88"/>
       <c r="K56" s="89"/>
     </row>
-    <row r="57" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="97"/>
       <c r="B57" s="97"/>
       <c r="C57" s="97"/>
@@ -14142,71 +14185,64 @@
       <c r="J57" s="97"/>
       <c r="K57" s="97"/>
     </row>
-    <row r="58" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="A7:F7"/>
@@ -14215,6 +14251,13 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
